--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/20/seed1/result_data_KNN.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.372</v>
+        <v>-12.223</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.958</v>
+        <v>-12.318</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.106</v>
+        <v>-12.909</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.338</v>
+        <v>-12.606</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.568</v>
+        <v>-13.164</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.98</v>
+        <v>-12.205</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.686</v>
+        <v>-12.725</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.588</v>
+        <v>-12.848</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.27</v>
+        <v>-11.736</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.822</v>
+        <v>-12.351</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.85</v>
+        <v>-12.95</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.236</v>
+        <v>-12.446</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.612</v>
+        <v>-13.827</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.324</v>
+        <v>-11.187</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.322</v>
+        <v>-11.614</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.764</v>
+        <v>-13.632</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.488</v>
+        <v>-13.18</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.068</v>
+        <v>-13.555</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1556,7 +1556,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.544</v>
+        <v>-10.836</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.796</v>
+        <v>-12.908</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.372</v>
+        <v>-11.982</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.294</v>
+        <v>-12.466</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.03</v>
+        <v>-11.104</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.614</v>
+        <v>-12.747</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
